--- a/information/2025-10-28_Scoring.xlsx
+++ b/information/2025-10-28_Scoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\Clinical_Backbone_RU5389\information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C0111-72AE-4C88-82BD-233607444291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775F3D2-C4FF-4D8D-9202-04899D07ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1965" yWindow="2940" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>IDAS</t>
   </si>
@@ -88,6 +91,15 @@
   </si>
   <si>
     <t>MAP-SR</t>
+  </si>
+  <si>
+    <t>FHSfamilytree</t>
+  </si>
+  <si>
+    <t>Dropbox FOR</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -408,19 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="209" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -437,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -454,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -467,8 +482,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -481,16 +499,22 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -503,8 +527,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -517,8 +544,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -531,8 +561,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -552,7 +585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -565,8 +598,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -579,8 +615,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -592,6 +631,14 @@
       </c>
       <c r="D12" t="s">
         <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/information/2025-10-28_Scoring.xlsx
+++ b/information/2025-10-28_Scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775F3D2-C4FF-4D8D-9202-04899D07ECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207F9DDE-B62D-4ADF-AC27-0508CA6A81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1965" yWindow="2940" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="5820" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>IDAS</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>scale</t>
+  </si>
+  <si>
+    <t>mean(distress * frequency)</t>
+  </si>
+  <si>
+    <t>sum(agree)</t>
+  </si>
+  <si>
+    <t>sum(bas only)</t>
   </si>
 </sst>
 </file>
@@ -423,11 +432,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="209" bestFit="1" customWidth="1"/>
   </cols>
@@ -480,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -497,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -536,13 +546,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>

--- a/information/2025-10-28_Scoring.xlsx
+++ b/information/2025-10-28_Scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Wilken Arbeitsordner\Clinical_Backbone_RU5389\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207F9DDE-B62D-4ADF-AC27-0508CA6A81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B990BAF-9F20-4B00-AAC3-17E89B03B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="5820" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
